--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2017.xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2017.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\4. Avdeling MHV\Luftovervåkning\Prosjekter\Rådata til interaktivt dashbord TFK (2025)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FFF1F-6782-442E-8428-89B1995C605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9A7FFF1F-6782-442E-8428-89B1995C605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC902BDE-D0F4-4A1B-A66F-2A2B57A6C2F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{713870CD-E262-41EA-9807-AA394C4BDB14}"/>
+    <workbookView xWindow="1560" yWindow="615" windowWidth="38610" windowHeight="20985" xr2:uid="{713870CD-E262-41EA-9807-AA394C4BDB14}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2361-2473-2723-2724-1" sheetId="1" r:id="rId1"/>
@@ -922,11 +922,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7354CB4-CD9A-45B5-9EA3-00BDC69AEACE}">
   <dimension ref="A1:T336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="I276" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
